--- a/simplified_job_info.xlsx
+++ b/simplified_job_info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,11 +474,6 @@
           <t>Responsabilidades</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Benefícios</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -498,17 +493,17 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Excel</t>
+          <t>Conhecimentos em Lógica de Programação, Engenharia, Excel, Lógica, Matemática, Programação</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Plataforma Educacional, Clínica Corporativa, VT sem desconto ou estacionamento, Gympass, Assistência Médica, Vale Refeição, Cartão Flash, Sala de Leitura, Auxílio Creche, Empréstimo Consignado, Freshbook, Bônus</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5º semestre, Economia, Engenharia</t>
+          <t>5º semestre, Física, Economia, Engenharia, Engenharias, Matemática</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -521,7 +516,6 @@
           <t>Processamento do cálculo de risco das carteiras dos fundos, Análise de risco, Atualização de apresentações para o Comitê Risco, Monitoramento de garantias e resseguro.</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -541,12 +535,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Pacote Office, Comunicação, Focado, Dinâmico, Capacidade Analítica</t>
+          <t>Administração ou Economia, Formação em Engenharia, Capacidade analítica, Capacidade de comunicação, Comunicação, Comunicação, Engenharia, Pacote Office, Perfil focado</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Bolsa competitiva com política de bônus agressiva</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
@@ -560,7 +554,6 @@
           <t>Modelagem financeira, estruturação e otimização de processos, interação direta com os clientes.</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -580,17 +573,17 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Excel, Inglês Avançado, Proatividade, Pacote Office</t>
+          <t>Controladoria de fundos, Engenharia, Excel, Gestão de fundos de investimento, Graduação em Engenharia ou finanças, Inglês, Inglês avançado, Matemática, Matemática financeira, Pacote Office, Perfil analítico, Proatividade, Proatividade</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Bolsa competitiva ao mercado, Vale Refeição, Vale Transporte</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Engenharia, Finanças</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -603,7 +596,6 @@
           <t>Elaboração de relatórios, acompanhamento de aquisições, monitoramento de aderência de compras, preparação de relatórios gerenciais, atuação no relacionamento com empresas, integração com a originadora do fundo.</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -623,17 +615,17 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Python, Inglês Avançado, Pacote Office</t>
+          <t>Disponibilidade para modelo de trabalho, Engenharia, Inglês, Inglês avançado, Pacote Office, Python, Python, VB, VBA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Não especificada</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Economia, Administração, Engenharia</t>
+          <t>Administração, Economia, Engenharia</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -646,7 +638,6 @@
           <t>Auxílio ao time, buscar automatizar os processos e rotinas do dia a dia, atuação 360° dentro da gestora.</t>
         </is>
       </c>
-      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -664,10 +655,14 @@
           <t>Vila Nova Conceição – Zona Sul</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Contabilidade, Engenharia, Entendimento acerca de contabilidade</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Bolsa Auxílio R$2.600,00, Vale Refeição R$600,00</t>
+          <t>R$ 2.600.00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
@@ -681,7 +676,6 @@
           <t>Rotinas Administrativas; Emissão de Notas Fiscais; Contas a pagar; Contas a receber; Atualização de sistema financeiro; Conciliação Bancária; Automatização de Processos.</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -699,13 +693,21 @@
           <t>Remoto</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Desenvolvimento de produto, Lógica, Programação</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>R$ 3.900,00 (R$ 3000,00 contrato de estágio + R$ 900,00 em um cartão de benefícios flexíveis)</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>R$ 3.900.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Jovens</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
           <t>Engenharia de Software</t>
@@ -716,7 +718,6 @@
           <t>Adquirir conhecimento e proficiência no trabalho com as stacks de tecnologia mais modernas do mercado, desenvolver produtos de software usando melhores práticas de lógica e programação, influenciar o desenvolvimento de produto.</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -736,7 +737,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>AWS, Banco de dados relacional e não relacional, Cloud, Conhecimento de Rest, Conhecimento em Python, Conhecimento em serverless framework, Controle de versão colaborativo, Dados, Estruturas de dados, Experiência com monitoração e logging, Experiência com soluções cloud AWS, Experiência com testes unitários e de integração, Git, Java, Java, Java/Kotlin, JavaScript, Javascript, Kafka, Kotlin, Kotlin, Logging, Node, Problemas, Produtos financeiros voltados à créditos, Python, Python, Rest, Root cause analysis, TypeScript, Visão de qualidade de software</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -755,7 +756,6 @@
           <t>Participar do desenho da arquitetura de solução e cenários de uso, definir requisitos técnicos, arquitetura de sistemas e melhores abordagens de desenvolvimento, apoiar profissionais que precisem da sua experiência ou orientação, contribuir com os time de infraestrutura, segurança e arquitetura para determinar as melhores soluções para os problemas, fornecer orientação técnica e suporte à equipe, compartilhar conhecimento e melhores práticas, ajudar na evolução técnica dos outros desenvolvedores.</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -775,7 +775,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Comunicação, Dinâmico</t>
+          <t>Comunicação, Comunicação, Data Visualization, Engenharia, Ferramentas de Analytics, Git, GTM, GTM e tagueamento, Habilidades de comunicação interpessoal, Inglês, Java, Java, JavaScript, Javascript, Linguagens de programação (Javascript), Marketing, Métricas de marketing digital, Programação, Tagueamento, Visualization</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -783,7 +783,11 @@
           <t>A combinar</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Curso Superior</t>
+        </is>
+      </c>
       <c r="G9" t="inlineStr">
         <is>
           <t>Data &amp; Analytics</t>
@@ -794,7 +798,6 @@
           <t>Participar de reuniões com clientes e equipes internas, responsável pela implementação, gestão e manutenção de tags e plataformas de Digital Analytics para Sites e Aplicativos, responsável pela criação e manutenção de bases de dados, responsável por criar documentos instrutivos de implementações para clientes, responsável por planejar e gerenciar o plano de métricas, auxiliar na confecção de dashboards e relatórios básicos para clientes, auxiliar no desenvolvimento de análises descritivas e diagnósticas para os clientes.</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -812,7 +815,11 @@
           <t>Remoto</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Curioso, Disponibilidade para jornada de 4h ou 6h diárias, Questionador, Questionador, Ser curioso, Transformar</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -829,7 +836,6 @@
           <t>Participação em projetos importantes para o banco, desenvolvimento de potencial em projetos que têm o poder de transformar o mercado, a sociedade e a vida de nossos clientes.</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -849,7 +855,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Comunicação</t>
+          <t>Boot, Comunicação, Comunicação, Dados, Engenharia, Hibernate, Java, Java, JPA, MongoDB, MySQL, NoSQL, PostgreSQL, Spring, SQL</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -859,7 +865,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Engenharia, Ciência da Computação, Engenharia de Software, Sistemas de Informação, Análise e Desenvolvimento de Sistemas</t>
+          <t>Análise e Desenvolvimento de Sistemas, Sistemas de Informação, Engenharia de Software, Engenharia</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -872,7 +878,6 @@
           <t>Participar de forma supervisionada no desenvolvimento de aplicações Java, sob arquitetura de microsserviços; Colaborar com a equipe de desenvolvimento em algumas fases do ciclo de vida do software; Contribuir com a documentação técnica dos sistemas e aplicações; Estar junto do time na resolução de problemas das aplicações para absorção de conhecimentos; Trabalhar com a metodologia ágil Scrum, participando ativamente das cerimônias.</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -887,12 +892,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Remoto</t>
+          <t>Presencial</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Inglês Intermediário</t>
+          <t>AIX, AS400, Cloud, Dados, DB2, Genexus, Inglês, Java, Java, Programação</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -911,7 +916,6 @@
           <t>Apoio na organização da entrega contínua dos produtos de software ou projetos de sistemas; Apoio aos times de desenvolvedores na aplicação das melhorias práticas e técnicas de codificação; Apoio na gestão dos fornecedores externos.</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -931,7 +935,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Python</t>
+          <t>Dados, Engenharia, Frameworks, Java, Java, JavaScript, Javascript, MongoDB, NoSQL, Programação, Python, Python, React.js, SQL</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -941,7 +945,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Engenharia, Ciência da Computação, Engenharia de Software, Sistemas de Informação</t>
+          <t>Sistemas de Informação, Engenharia de Software, Engenharia</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -954,7 +958,6 @@
           <t>Auxiliar no desenvolvimento e manutenção da infraestrutura backend utilizando Python e frameworks como Flask ou FastAPI, suportar a implementação e gerenciamento de bancos de dados MongoDB, participar do desenvolvimento de interfaces de usuário utilizando JavaScript, React.js, Node.js e Express, ajudar na utilização de Redux para gerenciamento de estado em aplicações React, colaborar com a equipe de desenvolvimento para resolver problemas e implementar melhorias, participar de reuniões e sessões de brainstorming para contribuir com ideias inovadoras, manter a documentação técnica organizada e atualizada.</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -972,7 +975,11 @@
           <t>Remoto</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Inglês</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -993,7 +1000,6 @@
           <t>Mergulhar no universo dos grandes investidores, desvendando as soluções financeiras mais inovadoras do mercado, atendimento a grandes investidores institucionais do Brasil e clientes de private banking.</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1013,12 +1019,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Excel, Pacote Office</t>
+          <t>Excel, Inglês, Pacote Office</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>A combinar; Bolsa-Auxílio; Vale Transporte; Vale Refeição; Wellhub (gympass)</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
@@ -1032,7 +1038,6 @@
           <t>Acompanhamento do fluxo de exportação, preparação do pacote de documentos dos embarques, acompanhamento de coletas realizadas dentro do território brasileiro, responsável pelo fluxo de pagamentos dos fornecedores da logísticas.</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1052,12 +1057,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Comunicação</t>
+          <t>Comunicação, Comunicação, Marketing, Rest</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>A combinar, inclui bolsa estágio, vale alimentação</t>
+          <t>A combinar</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1073,11 +1078,6 @@
       <c r="H16" t="inlineStr">
         <is>
           <t>Auxiliar na concepção e entrega de estratégias de mídia social, criar planejamento e calendário de postagens, publicar e dar manutenção nos conteúdos publicados nas redes sociais, auxiliar no desenvolvimento, lançamento e gerenciamento de novas campanhas, gerar relatórios e analisar o desempenho em plataformas de mídia social, auxiliar na identificação de tendências de consumo, ajudar a otimizar o conteúdo para incentivar a interação e o envolvimento da comunidade, pesquisar e avaliar as ferramentas e técnicas mais recentes para melhor medir a atividade nas redes sociais.</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>refeição, Gympass, plano de saúde e odontológico.</t>
         </is>
       </c>
     </row>
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Excel, Comunicação</t>
+          <t>Comunicação, Comunicação, Dados, Engenharia, Excel</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1109,7 +1109,7 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>3º semestre, Economia, Administração, Engenharia</t>
+          <t>3º semestre, Administração, Economia, Engenharia</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -1122,7 +1122,6 @@
           <t>Auxiliar na formulação e implementação de estratégias corporativas; Conduzir pesquisas de mercado; Elaborar apresentações executivas; Organizar e gerenciar informações do projeto; Realizar análises financeiras e estratégicas de empresas; Participar de todas as etapas dos projetos de consultoria.</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1140,13 +1139,21 @@
           <t>Remoto</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Lógica, NET, Programação</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>A combinar</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Curso Superior</t>
+        </is>
+      </c>
       <c r="G18" t="inlineStr">
         <is>
           <t>Automation</t>
@@ -1157,7 +1164,6 @@
           <t>Desenvolver automações, construir telas de front-end em ReactJS e Flask, programar back-end e APIs de serviços em Python, criar processos padronizados, lidar com produtos financeiros, desenvolver soluções definidas, prestar suporte, manter um relacionamento próximo com os usuários, negociar a prioridade das soluções, fomentar a missão da área, documentar os processos e soluções, acompanhar o time de Discovery, desenvolver soluções de alto impacto, garantir a estabilidade e o funcionamento das soluções do time.</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1177,7 +1183,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Comunicação</t>
+          <t>Comunicação, Comunicação, Engenharia, Git, Marketing</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1187,7 +1193,7 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Administração, Engenharia, Marketing</t>
+          <t>Marketing, Administração, Engenharia</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1200,7 +1206,6 @@
           <t>Auxiliar no planejamento, implementação e análise de desempenho de réguas de comunicação e campanhas; Auxiliar na criação de conteúdo das comunicações; Contribuir no desenvolvimento de relatórios de performance para identificação de oportunidades de otimização; Contribuir com o aumento da representatividade de CRM na geração de demanda para o time de vendas, e com a melhora das principais métricas de CRM.</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1218,7 +1223,11 @@
           <t>Remoto</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Criativas, Liderança, Problemas</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -1226,7 +1235,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Formados</t>
+          <t>Formados, Recém-formados</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1239,7 +1248,6 @@
           <t>Trabalho em equipe, identificação de fontes de informação, coleta e interpretação de dados, execução de análises, apresentação de resultados, entrevistas com consumidores, concorrentes, fornecedores e empregadores, supervisão de colegas mais novos.</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1259,7 +1267,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Proatividade, Pacote Office, Comunicação</t>
+          <t>Comunicação, Comunicação, Pacote Office, Proatividade, Proatividade</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1267,7 +1275,11 @@
           <t>A combinar</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Superior em andamento</t>
+        </is>
+      </c>
       <c r="G21" t="inlineStr">
         <is>
           <t>Recursos Humanos, área de Desenvolvimento, Atração e Seleção</t>
@@ -1278,7 +1290,6 @@
           <t>Mapeamento de talentos, busca ativa de candidatos, alinhamento de perfil das vagas, divulgação, triagem, entrevistas, processo de admissão de novos colaboradores, gestão das plataformas de seleção.</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1302,7 +1313,11 @@
           <t>A combinar</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8º período</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
           <t>Comercial, Vendas Internas, Ciências Agrárias</t>
@@ -1313,7 +1328,6 @@
           <t>Dar apoio nos processo de vendas internas, em atividades de contato direto com clientes, acompanhamento de pedidos e fornecimento de suporte ao pós-venda, aprender sobre os produtos e serviços oferecidos pelo laboratório, entender as necessidades e demandas dos clientes do setor de pecuária e agricultura.</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1331,7 +1345,11 @@
           <t>Remoto</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Boot, C#, Kotlin, Kotlin, Metodologias Ágeis, NET, Programação, Rails, Ruby, Spring, SpringBoot</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>A combinar</t>
@@ -1339,7 +1357,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Engenharia, Ciência da Computação, Sistemas de Informação</t>
+          <t>Sistemas de Informação, Engenharia, Engenharias</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1352,7 +1370,6 @@
           <t>Desenvolvimento front-end e/ou back-end; Correção de bugs e melhoria contínua; Definição de melhores tecnologias a serem usadas nos sistemas desenvolvidos; Propor e implementar novas ferramentas, técnicas e metodologias; Compartilhar e evoluir o conhecimento técnico do time.</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1372,7 +1389,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Python, Inglês Avançado</t>
+          <t>C#, Inglês, Inglês avançado, Java, Java, NET, PHP, Programação, Python, Python, VB, VBA</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1380,7 +1397,11 @@
           <t>A combinar</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>6º período</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr">
         <is>
           <t>RPA (Robotic Process Automation), programação, Business Analytics.</t>
@@ -1391,7 +1412,6 @@
           <t>Desenvolver soluções em RPA em conjunto com seu time para clientes nacionais e/ou internacionais, contribuir para uma entrega de soluções de automação, ajudando aos clientes nas suas transformações digitais.</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1411,7 +1431,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Excel, Inglês Avançado</t>
+          <t>Engenharia, Excel, Inglês, Inglês avançado, Problemas</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1434,7 +1454,6 @@
           <t>Apoiar no mapeamento e prospecção de oportunidades; Realizar pesquisas de mercado e ações de pré-venda; Elaborar e apresentar propostas técnicas-comerciais nas áreas de atuação da empresa; Acompanhar a equipe técnica nas estimativas de recursos para projetos; Representar a empresa em visitas técnicas e reuniões para a discussão de escopo de projetos; Apoiar na construção, formalização e conclusão de propostas comerciais e orçamentárias; Elaborar materiais de divulgação de soluções desenvolvidas pela Radix.</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1454,7 +1473,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Python, Excel, Inglês Avançado, Comunicação</t>
+          <t>Comunicação, Comunicação, Excel, Inglês, Inglês avançado, PowerPoint, Problemas, Python, Python, SQL</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1473,7 +1492,6 @@
           <t>Elaboração de modelos de projeção de receita e custos, estratégia e implementação de campanhas de marketing, análise de performance de testes de Growth, automatização de processos recorrentes, alinhamento de planos de ação com times responsáveis.</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
